--- a/Output/Кофемашины ВСТР.xlsx
+++ b/Output/Кофемашины ВСТР.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Артикул</t>
   </si>
@@ -118,6 +118,9 @@
     <t>CM470101</t>
   </si>
   <si>
+    <t>подключение к водопроводу</t>
+  </si>
+  <si>
     <t>CM470111</t>
   </si>
   <si>
@@ -161,18 +164,6 @@
   </si>
   <si>
     <t>CMSC451NE</t>
-  </si>
-  <si>
-    <t>ECF01BLEU</t>
-  </si>
-  <si>
-    <t>ECF01CREU</t>
-  </si>
-  <si>
-    <t>ECF01PBEU</t>
-  </si>
-  <si>
-    <t>ECF01RDEU</t>
   </si>
 </sst>
 </file>
@@ -508,7 +499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,8 +690,12 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
       <c r="I4" t="s"/>
       <c r="J4" t="s"/>
       <c r="K4" t="s"/>
@@ -731,8 +726,12 @@
       <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
       <c r="I5" t="s"/>
       <c r="J5" t="s"/>
       <c r="K5" t="s"/>
@@ -763,8 +762,12 @@
       <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
       <c r="K6" t="s"/>
@@ -778,7 +781,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -787,16 +790,20 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
       <c r="I7" t="s"/>
       <c r="J7" t="s"/>
       <c r="K7" t="s"/>
@@ -810,7 +817,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -819,7 +826,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -827,8 +834,12 @@
       <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
       <c r="I8" t="s"/>
       <c r="J8" t="s"/>
       <c r="K8" t="s"/>
@@ -842,7 +853,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -851,7 +862,7 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -859,8 +870,12 @@
       <c r="F9" t="s">
         <v>22</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
       <c r="I9" t="s"/>
       <c r="J9" t="s"/>
       <c r="K9" t="s"/>
@@ -874,7 +889,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -883,7 +898,7 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
@@ -891,8 +906,12 @@
       <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
       <c r="I10" t="s"/>
       <c r="J10" t="s"/>
       <c r="K10" t="s"/>
@@ -906,7 +925,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -915,7 +934,7 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
@@ -923,8 +942,12 @@
       <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
       <c r="I11" t="s"/>
       <c r="J11" t="s"/>
       <c r="K11" t="s"/>
@@ -938,7 +961,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -947,7 +970,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -955,8 +978,12 @@
       <c r="F12" t="s">
         <v>22</v>
       </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
       <c r="I12" t="s"/>
       <c r="J12" t="s"/>
       <c r="K12" t="s"/>
@@ -970,7 +997,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -979,7 +1006,7 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -987,8 +1014,12 @@
       <c r="F13" t="s">
         <v>22</v>
       </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
       <c r="I13" t="s"/>
       <c r="J13" t="s"/>
       <c r="K13" t="s"/>
@@ -1002,16 +1033,16 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
         <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
@@ -1027,7 +1058,7 @@
       </c>
       <c r="I14" t="s"/>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14" t="s">
         <v>26</v>
@@ -1056,16 +1087,16 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
         <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
@@ -1110,16 +1141,16 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
@@ -1127,8 +1158,12 @@
       <c r="F16" t="s">
         <v>22</v>
       </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s"/>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
       <c r="I16" t="s"/>
       <c r="J16" t="s"/>
       <c r="K16" t="s"/>
@@ -1142,16 +1177,16 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -1159,8 +1194,12 @@
       <c r="F17" t="s">
         <v>22</v>
       </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s"/>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
       <c r="I17" t="s"/>
       <c r="J17" t="s"/>
       <c r="K17" t="s"/>
@@ -1174,16 +1213,16 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
@@ -1191,8 +1230,12 @@
       <c r="F18" t="s">
         <v>22</v>
       </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s"/>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
       <c r="I18" t="s"/>
       <c r="J18" t="s"/>
       <c r="K18" t="s"/>
@@ -1204,134 +1247,6 @@
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
     </row>
-    <row r="19" spans="1:18">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s"/>
-      <c r="J19" t="s"/>
-      <c r="K19" t="s"/>
-      <c r="L19" t="s"/>
-      <c r="M19" t="s"/>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s"/>
-      <c r="J20" t="s"/>
-      <c r="K20" t="s"/>
-      <c r="L20" t="s"/>
-      <c r="M20" t="s"/>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s"/>
-      <c r="J21" t="s"/>
-      <c r="K21" t="s"/>
-      <c r="L21" t="s"/>
-      <c r="M21" t="s"/>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s"/>
-      <c r="J22" t="s"/>
-      <c r="K22" t="s"/>
-      <c r="L22" t="s"/>
-      <c r="M22" t="s"/>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
